--- a/Config.xlsx
+++ b/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tony Nudd\Documents\UiPath\HARI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289957A1-A3E6-43A6-9885-F544D5BFBC96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAF810A-5155-49EC-ADB1-B645F26393DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="2840" windowWidth="19200" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2380" yWindow="1450" windowWidth="19200" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -193,6 +193,18 @@
   </si>
   <si>
     <t>Inbox\HARI-Exception</t>
+  </si>
+  <si>
+    <t>TempFolder</t>
+  </si>
+  <si>
+    <t>C:\Temp</t>
+  </si>
+  <si>
+    <t>Temporary folder to hold the survey attachment file</t>
+  </si>
+  <si>
+    <t>Where to plce any exception emails</t>
   </si>
 </sst>
 </file>
@@ -551,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -648,8 +660,21 @@
       <c r="B6" t="s">
         <v>56</v>
       </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
